--- a/artfynd/A 36365-2022.xlsx
+++ b/artfynd/A 36365-2022.xlsx
@@ -2624,10 +2624,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111671179</v>
+        <v>111670510</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2640,26 +2640,27 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2667,10 +2668,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>558215.9656782644</v>
+        <v>558124.4538526792</v>
       </c>
       <c r="R19" t="n">
-        <v>7067867.520903144</v>
+        <v>7067994.321708324</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2740,10 +2741,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111671294</v>
+        <v>111671188</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2752,25 +2753,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2783,10 +2784,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>558118.4535210516</v>
+        <v>558215.9329796816</v>
       </c>
       <c r="R20" t="n">
-        <v>7067742.103054954</v>
+        <v>7067869.292590594</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2856,10 +2857,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111671188</v>
+        <v>111670567</v>
       </c>
       <c r="B21" t="n">
-        <v>78605</v>
+        <v>96346</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2868,30 +2869,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6462</v>
+        <v>620</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2899,10 +2901,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>558215.9329796816</v>
+        <v>558129.9933989302</v>
       </c>
       <c r="R21" t="n">
-        <v>7067869.292590594</v>
+        <v>7067958.536170656</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2972,10 +2974,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111670510</v>
+        <v>111671179</v>
       </c>
       <c r="B22" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2988,27 +2990,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3016,10 +3017,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>558124.4538526792</v>
+        <v>558215.9656782644</v>
       </c>
       <c r="R22" t="n">
-        <v>7067994.321708324</v>
+        <v>7067867.520903144</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3089,10 +3090,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111670497</v>
+        <v>111671294</v>
       </c>
       <c r="B23" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3105,27 +3106,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>558159.8619213518</v>
+        <v>558118.4535210516</v>
       </c>
       <c r="R23" t="n">
-        <v>7068022.886732788</v>
+        <v>7067742.103054954</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3206,10 +3206,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111670477</v>
+        <v>111671197</v>
       </c>
       <c r="B24" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3222,27 +3222,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3250,10 +3249,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>558155.0815836267</v>
+        <v>558250.1783714101</v>
       </c>
       <c r="R24" t="n">
-        <v>7068017.481975557</v>
+        <v>7067936.828089682</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3323,10 +3322,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111671197</v>
+        <v>111670477</v>
       </c>
       <c r="B25" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3339,26 +3338,27 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3366,10 +3366,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>558250.1783714101</v>
+        <v>558155.0815836267</v>
       </c>
       <c r="R25" t="n">
-        <v>7067936.828089682</v>
+        <v>7068017.481975557</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3555,10 +3555,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111671226</v>
+        <v>111671190</v>
       </c>
       <c r="B27" t="n">
-        <v>78579</v>
+        <v>78611</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3567,25 +3567,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2081</v>
+        <v>6463</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>558118.4535210516</v>
+        <v>558215.9329796816</v>
       </c>
       <c r="R27" t="n">
-        <v>7067742.103054954</v>
+        <v>7067869.292590594</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111670567</v>
+        <v>111670497</v>
       </c>
       <c r="B28" t="n">
         <v>96346</v>
@@ -3715,10 +3715,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>558129.9933989302</v>
+        <v>558159.8619213518</v>
       </c>
       <c r="R28" t="n">
-        <v>7067958.536170656</v>
+        <v>7068022.886732788</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3788,10 +3788,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111671190</v>
+        <v>111670558</v>
       </c>
       <c r="B29" t="n">
-        <v>78611</v>
+        <v>96346</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3800,30 +3800,31 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6463</v>
+        <v>620</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3831,10 +3832,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>558215.9329796816</v>
+        <v>558133.6011735104</v>
       </c>
       <c r="R29" t="n">
-        <v>7067869.292590594</v>
+        <v>7067979.426396712</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3904,10 +3905,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111670558</v>
+        <v>111671226</v>
       </c>
       <c r="B30" t="n">
-        <v>96346</v>
+        <v>78579</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3920,27 +3921,26 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>620</v>
+        <v>2081</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -3948,10 +3948,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>558133.6011735104</v>
+        <v>558118.4535210516</v>
       </c>
       <c r="R30" t="n">
-        <v>7067979.426396712</v>
+        <v>7067742.103054954</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>

--- a/artfynd/A 36365-2022.xlsx
+++ b/artfynd/A 36365-2022.xlsx
@@ -2624,7 +2624,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111670510</v>
+        <v>111670558</v>
       </c>
       <c r="B19" t="n">
         <v>96346</v>
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>558124.4538526792</v>
+        <v>558133.6011735104</v>
       </c>
       <c r="R19" t="n">
-        <v>7067994.321708324</v>
+        <v>7067979.426396712</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2741,10 +2741,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111671188</v>
+        <v>111671294</v>
       </c>
       <c r="B20" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2753,25 +2753,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>558215.9329796816</v>
+        <v>558118.4535210516</v>
       </c>
       <c r="R20" t="n">
-        <v>7067869.292590594</v>
+        <v>7067742.103054954</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111670567</v>
+        <v>111670497</v>
       </c>
       <c r="B21" t="n">
         <v>96346</v>
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>558129.9933989302</v>
+        <v>558159.8619213518</v>
       </c>
       <c r="R21" t="n">
-        <v>7067958.536170656</v>
+        <v>7068022.886732788</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2974,10 +2974,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111671179</v>
+        <v>111671226</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2990,21 +2990,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>558215.9656782644</v>
+        <v>558118.4535210516</v>
       </c>
       <c r="R22" t="n">
-        <v>7067867.520903144</v>
+        <v>7067742.103054954</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3090,10 +3090,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111671294</v>
+        <v>111671190</v>
       </c>
       <c r="B23" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3102,25 +3102,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>558118.4535210516</v>
+        <v>558215.9329796816</v>
       </c>
       <c r="R23" t="n">
-        <v>7067742.103054954</v>
+        <v>7067869.292590594</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111671197</v>
+        <v>111671179</v>
       </c>
       <c r="B24" t="n">
         <v>78578</v>
@@ -3249,10 +3249,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>558250.1783714101</v>
+        <v>558215.9656782644</v>
       </c>
       <c r="R24" t="n">
-        <v>7067936.828089682</v>
+        <v>7067867.520903144</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3322,10 +3322,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111670477</v>
+        <v>111671188</v>
       </c>
       <c r="B25" t="n">
-        <v>96346</v>
+        <v>78605</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3334,31 +3334,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>620</v>
+        <v>6462</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3366,10 +3365,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>558155.0815836267</v>
+        <v>558215.9329796816</v>
       </c>
       <c r="R25" t="n">
-        <v>7068017.481975557</v>
+        <v>7067869.292590594</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3439,10 +3438,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111671201</v>
+        <v>111670477</v>
       </c>
       <c r="B26" t="n">
-        <v>78579</v>
+        <v>96346</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3455,26 +3454,27 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2081</v>
+        <v>620</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3482,10 +3482,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>558250.1783714101</v>
+        <v>558155.0815836267</v>
       </c>
       <c r="R26" t="n">
-        <v>7067936.828089682</v>
+        <v>7068017.481975557</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3555,10 +3555,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111671190</v>
+        <v>111670510</v>
       </c>
       <c r="B27" t="n">
-        <v>78611</v>
+        <v>96346</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3567,30 +3567,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6463</v>
+        <v>620</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3598,10 +3599,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>558215.9329796816</v>
+        <v>558124.4538526792</v>
       </c>
       <c r="R27" t="n">
-        <v>7067869.292590594</v>
+        <v>7067994.321708324</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3671,10 +3672,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111670497</v>
+        <v>111671201</v>
       </c>
       <c r="B28" t="n">
-        <v>96346</v>
+        <v>78579</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3687,27 +3688,26 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>620</v>
+        <v>2081</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3715,10 +3715,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>558159.8619213518</v>
+        <v>558250.1783714101</v>
       </c>
       <c r="R28" t="n">
-        <v>7068022.886732788</v>
+        <v>7067936.828089682</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111670558</v>
+        <v>111670567</v>
       </c>
       <c r="B29" t="n">
         <v>96346</v>
@@ -3832,10 +3832,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>558133.6011735104</v>
+        <v>558129.9933989302</v>
       </c>
       <c r="R29" t="n">
-        <v>7067979.426396712</v>
+        <v>7067958.536170656</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3905,10 +3905,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111671226</v>
+        <v>111671197</v>
       </c>
       <c r="B30" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3921,21 +3921,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3948,10 +3948,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>558118.4535210516</v>
+        <v>558250.1783714101</v>
       </c>
       <c r="R30" t="n">
-        <v>7067742.103054954</v>
+        <v>7067936.828089682</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>

--- a/artfynd/A 36365-2022.xlsx
+++ b/artfynd/A 36365-2022.xlsx
@@ -2624,10 +2624,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111670558</v>
+        <v>111671188</v>
       </c>
       <c r="B19" t="n">
-        <v>96346</v>
+        <v>78605</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2636,31 +2636,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>620</v>
+        <v>6462</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2668,10 +2667,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>558133.6011735104</v>
+        <v>558215.9329796816</v>
       </c>
       <c r="R19" t="n">
-        <v>7067979.426396712</v>
+        <v>7067869.292590594</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2741,7 +2740,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111671294</v>
+        <v>111671197</v>
       </c>
       <c r="B20" t="n">
         <v>78578</v>
@@ -2784,10 +2783,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>558118.4535210516</v>
+        <v>558250.1783714101</v>
       </c>
       <c r="R20" t="n">
-        <v>7067742.103054954</v>
+        <v>7067936.828089682</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2857,10 +2856,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111670497</v>
+        <v>111671190</v>
       </c>
       <c r="B21" t="n">
-        <v>96346</v>
+        <v>78611</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2869,31 +2868,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>620</v>
+        <v>6463</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2901,10 +2899,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>558159.8619213518</v>
+        <v>558215.9329796816</v>
       </c>
       <c r="R21" t="n">
-        <v>7068022.886732788</v>
+        <v>7067869.292590594</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2974,7 +2972,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111671226</v>
+        <v>111671201</v>
       </c>
       <c r="B22" t="n">
         <v>78579</v>
@@ -3017,10 +3015,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>558118.4535210516</v>
+        <v>558250.1783714101</v>
       </c>
       <c r="R22" t="n">
-        <v>7067742.103054954</v>
+        <v>7067936.828089682</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3090,10 +3088,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111671190</v>
+        <v>111670567</v>
       </c>
       <c r="B23" t="n">
-        <v>78611</v>
+        <v>96346</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3102,30 +3100,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6463</v>
+        <v>620</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3133,10 +3132,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>558215.9329796816</v>
+        <v>558129.9933989302</v>
       </c>
       <c r="R23" t="n">
-        <v>7067869.292590594</v>
+        <v>7067958.536170656</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3206,10 +3205,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111671179</v>
+        <v>111671226</v>
       </c>
       <c r="B24" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3222,21 +3221,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3249,10 +3248,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>558215.9656782644</v>
+        <v>558118.4535210516</v>
       </c>
       <c r="R24" t="n">
-        <v>7067867.520903144</v>
+        <v>7067742.103054954</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3322,10 +3321,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111671188</v>
+        <v>111670477</v>
       </c>
       <c r="B25" t="n">
-        <v>78605</v>
+        <v>96346</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3334,30 +3333,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6462</v>
+        <v>620</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3365,10 +3365,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>558215.9329796816</v>
+        <v>558155.0815836267</v>
       </c>
       <c r="R25" t="n">
-        <v>7067869.292590594</v>
+        <v>7068017.481975557</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111670477</v>
+        <v>111670558</v>
       </c>
       <c r="B26" t="n">
         <v>96346</v>
@@ -3482,10 +3482,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>558155.0815836267</v>
+        <v>558133.6011735104</v>
       </c>
       <c r="R26" t="n">
-        <v>7068017.481975557</v>
+        <v>7067979.426396712</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3555,10 +3555,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111670510</v>
+        <v>111671294</v>
       </c>
       <c r="B27" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3571,27 +3571,26 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3599,10 +3598,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>558124.4538526792</v>
+        <v>558118.4535210516</v>
       </c>
       <c r="R27" t="n">
-        <v>7067994.321708324</v>
+        <v>7067742.103054954</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3672,10 +3671,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111671201</v>
+        <v>111670497</v>
       </c>
       <c r="B28" t="n">
-        <v>78579</v>
+        <v>96346</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3688,26 +3687,27 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2081</v>
+        <v>620</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3715,10 +3715,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>558250.1783714101</v>
+        <v>558159.8619213518</v>
       </c>
       <c r="R28" t="n">
-        <v>7067936.828089682</v>
+        <v>7068022.886732788</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3788,10 +3788,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111670567</v>
+        <v>111671179</v>
       </c>
       <c r="B29" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3804,27 +3804,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3832,10 +3831,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>558129.9933989302</v>
+        <v>558215.9656782644</v>
       </c>
       <c r="R29" t="n">
-        <v>7067958.536170656</v>
+        <v>7067867.520903144</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3905,10 +3904,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111671197</v>
+        <v>111670510</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3921,26 +3920,27 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -3948,10 +3948,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>558250.1783714101</v>
+        <v>558124.4538526792</v>
       </c>
       <c r="R30" t="n">
-        <v>7067936.828089682</v>
+        <v>7067994.321708324</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>

--- a/artfynd/A 36365-2022.xlsx
+++ b/artfynd/A 36365-2022.xlsx
@@ -2624,10 +2624,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111671188</v>
+        <v>111670477</v>
       </c>
       <c r="B19" t="n">
-        <v>78605</v>
+        <v>96346</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2636,30 +2636,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6462</v>
+        <v>620</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2667,10 +2668,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>558215.9329796816</v>
+        <v>558155.0815836267</v>
       </c>
       <c r="R19" t="n">
-        <v>7067869.292590594</v>
+        <v>7068017.481975557</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2740,10 +2741,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111671197</v>
+        <v>111671201</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2756,21 +2757,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2972,10 +2973,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111671201</v>
+        <v>111670497</v>
       </c>
       <c r="B22" t="n">
-        <v>78579</v>
+        <v>96346</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2988,26 +2989,27 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2081</v>
+        <v>620</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3015,10 +3017,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>558250.1783714101</v>
+        <v>558159.8619213518</v>
       </c>
       <c r="R22" t="n">
-        <v>7067936.828089682</v>
+        <v>7068022.886732788</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3088,10 +3090,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111670567</v>
+        <v>111671226</v>
       </c>
       <c r="B23" t="n">
-        <v>96346</v>
+        <v>78579</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3104,27 +3106,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>620</v>
+        <v>2081</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3132,10 +3133,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>558129.9933989302</v>
+        <v>558118.4535210516</v>
       </c>
       <c r="R23" t="n">
-        <v>7067958.536170656</v>
+        <v>7067742.103054954</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3205,10 +3206,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111671226</v>
+        <v>111671294</v>
       </c>
       <c r="B24" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3221,21 +3222,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3321,7 +3322,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111670477</v>
+        <v>111670558</v>
       </c>
       <c r="B25" t="n">
         <v>96346</v>
@@ -3365,10 +3366,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>558155.0815836267</v>
+        <v>558133.6011735104</v>
       </c>
       <c r="R25" t="n">
-        <v>7068017.481975557</v>
+        <v>7067979.426396712</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3438,7 +3439,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111670558</v>
+        <v>111670510</v>
       </c>
       <c r="B26" t="n">
         <v>96346</v>
@@ -3482,10 +3483,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>558133.6011735104</v>
+        <v>558124.4538526792</v>
       </c>
       <c r="R26" t="n">
-        <v>7067979.426396712</v>
+        <v>7067994.321708324</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3555,10 +3556,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111671294</v>
+        <v>111671188</v>
       </c>
       <c r="B27" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3567,25 +3568,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3598,10 +3599,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>558118.4535210516</v>
+        <v>558215.9329796816</v>
       </c>
       <c r="R27" t="n">
-        <v>7067742.103054954</v>
+        <v>7067869.292590594</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3671,10 +3672,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111670497</v>
+        <v>111671179</v>
       </c>
       <c r="B28" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3687,27 +3688,26 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3715,10 +3715,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>558159.8619213518</v>
+        <v>558215.9656782644</v>
       </c>
       <c r="R28" t="n">
-        <v>7068022.886732788</v>
+        <v>7067867.520903144</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111671179</v>
+        <v>111671197</v>
       </c>
       <c r="B29" t="n">
         <v>78578</v>
@@ -3831,10 +3831,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>558215.9656782644</v>
+        <v>558250.1783714101</v>
       </c>
       <c r="R29" t="n">
-        <v>7067867.520903144</v>
+        <v>7067936.828089682</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111670510</v>
+        <v>111670567</v>
       </c>
       <c r="B30" t="n">
         <v>96346</v>
@@ -3948,10 +3948,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>558124.4538526792</v>
+        <v>558129.9933989302</v>
       </c>
       <c r="R30" t="n">
-        <v>7067994.321708324</v>
+        <v>7067958.536170656</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>

--- a/artfynd/A 36365-2022.xlsx
+++ b/artfynd/A 36365-2022.xlsx
@@ -2624,7 +2624,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111670477</v>
+        <v>111670567</v>
       </c>
       <c r="B19" t="n">
         <v>96346</v>
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>558155.0815836267</v>
+        <v>558129.9933989302</v>
       </c>
       <c r="R19" t="n">
-        <v>7068017.481975557</v>
+        <v>7067958.536170656</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2741,10 +2741,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111671201</v>
+        <v>111671294</v>
       </c>
       <c r="B20" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2757,21 +2757,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>558250.1783714101</v>
+        <v>558118.4535210516</v>
       </c>
       <c r="R20" t="n">
-        <v>7067936.828089682</v>
+        <v>7067742.103054954</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111671190</v>
+        <v>111670558</v>
       </c>
       <c r="B21" t="n">
-        <v>78611</v>
+        <v>96346</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2869,30 +2869,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6463</v>
+        <v>620</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2900,10 +2901,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>558215.9329796816</v>
+        <v>558133.6011735104</v>
       </c>
       <c r="R21" t="n">
-        <v>7067869.292590594</v>
+        <v>7067979.426396712</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2973,10 +2974,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111670497</v>
+        <v>111671226</v>
       </c>
       <c r="B22" t="n">
-        <v>96346</v>
+        <v>78579</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2989,27 +2990,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>620</v>
+        <v>2081</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>558159.8619213518</v>
+        <v>558118.4535210516</v>
       </c>
       <c r="R22" t="n">
-        <v>7068022.886732788</v>
+        <v>7067742.103054954</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3090,10 +3090,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111671226</v>
+        <v>111670510</v>
       </c>
       <c r="B23" t="n">
-        <v>78579</v>
+        <v>96346</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3106,26 +3106,27 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2081</v>
+        <v>620</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3133,10 +3134,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>558118.4535210516</v>
+        <v>558124.4538526792</v>
       </c>
       <c r="R23" t="n">
-        <v>7067742.103054954</v>
+        <v>7067994.321708324</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3206,7 +3207,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111671294</v>
+        <v>111671179</v>
       </c>
       <c r="B24" t="n">
         <v>78578</v>
@@ -3249,10 +3250,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>558118.4535210516</v>
+        <v>558215.9656782644</v>
       </c>
       <c r="R24" t="n">
-        <v>7067742.103054954</v>
+        <v>7067867.520903144</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3322,7 +3323,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111670558</v>
+        <v>111670497</v>
       </c>
       <c r="B25" t="n">
         <v>96346</v>
@@ -3366,10 +3367,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>558133.6011735104</v>
+        <v>558159.8619213518</v>
       </c>
       <c r="R25" t="n">
-        <v>7067979.426396712</v>
+        <v>7068022.886732788</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3439,10 +3440,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111670510</v>
+        <v>111671197</v>
       </c>
       <c r="B26" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3455,27 +3456,26 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>558124.4538526792</v>
+        <v>558250.1783714101</v>
       </c>
       <c r="R26" t="n">
-        <v>7067994.321708324</v>
+        <v>7067936.828089682</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3556,10 +3556,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111671188</v>
+        <v>111670477</v>
       </c>
       <c r="B27" t="n">
-        <v>78605</v>
+        <v>96346</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3568,30 +3568,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6462</v>
+        <v>620</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3599,10 +3600,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>558215.9329796816</v>
+        <v>558155.0815836267</v>
       </c>
       <c r="R27" t="n">
-        <v>7067869.292590594</v>
+        <v>7068017.481975557</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3672,10 +3673,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111671179</v>
+        <v>111671188</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3684,25 +3685,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3715,10 +3716,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>558215.9656782644</v>
+        <v>558215.9329796816</v>
       </c>
       <c r="R28" t="n">
-        <v>7067867.520903144</v>
+        <v>7067869.292590594</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3788,10 +3789,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111671197</v>
+        <v>111671201</v>
       </c>
       <c r="B29" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3804,21 +3805,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3904,10 +3905,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111670567</v>
+        <v>111671190</v>
       </c>
       <c r="B30" t="n">
-        <v>96346</v>
+        <v>78611</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3916,31 +3917,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>620</v>
+        <v>6463</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -3948,10 +3948,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>558129.9933989302</v>
+        <v>558215.9329796816</v>
       </c>
       <c r="R30" t="n">
-        <v>7067958.536170656</v>
+        <v>7067869.292590594</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>

--- a/artfynd/A 36365-2022.xlsx
+++ b/artfynd/A 36365-2022.xlsx
@@ -3323,10 +3323,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111670497</v>
+        <v>111671197</v>
       </c>
       <c r="B25" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3339,27 +3339,26 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3367,10 +3366,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>558159.8619213518</v>
+        <v>558250.1783714101</v>
       </c>
       <c r="R25" t="n">
-        <v>7068022.886732788</v>
+        <v>7067936.828089682</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3440,10 +3439,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111671197</v>
+        <v>111670497</v>
       </c>
       <c r="B26" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3456,26 +3455,27 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>558250.1783714101</v>
+        <v>558159.8619213518</v>
       </c>
       <c r="R26" t="n">
-        <v>7067936.828089682</v>
+        <v>7068022.886732788</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>

--- a/artfynd/A 36365-2022.xlsx
+++ b/artfynd/A 36365-2022.xlsx
@@ -2624,10 +2624,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111670567</v>
+        <v>111671294</v>
       </c>
       <c r="B19" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2640,27 +2640,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2668,10 +2667,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>558129.9933989302</v>
+        <v>558118.4535210516</v>
       </c>
       <c r="R19" t="n">
-        <v>7067958.536170656</v>
+        <v>7067742.103054954</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2741,10 +2740,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111671294</v>
+        <v>111671190</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2753,25 +2752,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2784,10 +2783,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>558118.4535210516</v>
+        <v>558215.9329796816</v>
       </c>
       <c r="R20" t="n">
-        <v>7067742.103054954</v>
+        <v>7067869.292590594</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2857,10 +2856,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111670558</v>
+        <v>111671179</v>
       </c>
       <c r="B21" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2873,27 +2872,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2901,10 +2899,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>558133.6011735104</v>
+        <v>558215.9656782644</v>
       </c>
       <c r="R21" t="n">
-        <v>7067979.426396712</v>
+        <v>7067867.520903144</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2974,10 +2972,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111671226</v>
+        <v>111670510</v>
       </c>
       <c r="B22" t="n">
-        <v>78579</v>
+        <v>96346</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2990,26 +2988,27 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2081</v>
+        <v>620</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3017,10 +3016,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>558118.4535210516</v>
+        <v>558124.4538526792</v>
       </c>
       <c r="R22" t="n">
-        <v>7067742.103054954</v>
+        <v>7067994.321708324</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3090,7 +3089,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111670510</v>
+        <v>111670497</v>
       </c>
       <c r="B23" t="n">
         <v>96346</v>
@@ -3134,10 +3133,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>558124.4538526792</v>
+        <v>558159.8619213518</v>
       </c>
       <c r="R23" t="n">
-        <v>7067994.321708324</v>
+        <v>7068022.886732788</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3207,10 +3206,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111671179</v>
+        <v>111670567</v>
       </c>
       <c r="B24" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3223,26 +3222,27 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3250,10 +3250,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>558215.9656782644</v>
+        <v>558129.9933989302</v>
       </c>
       <c r="R24" t="n">
-        <v>7067867.520903144</v>
+        <v>7067958.536170656</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3323,10 +3323,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111671197</v>
+        <v>111671226</v>
       </c>
       <c r="B25" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3339,21 +3339,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3366,10 +3366,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>558250.1783714101</v>
+        <v>558118.4535210516</v>
       </c>
       <c r="R25" t="n">
-        <v>7067936.828089682</v>
+        <v>7067742.103054954</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111670497</v>
+        <v>111670558</v>
       </c>
       <c r="B26" t="n">
         <v>96346</v>
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>558159.8619213518</v>
+        <v>558133.6011735104</v>
       </c>
       <c r="R26" t="n">
-        <v>7068022.886732788</v>
+        <v>7067979.426396712</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3556,10 +3556,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111670477</v>
+        <v>111671188</v>
       </c>
       <c r="B27" t="n">
-        <v>96346</v>
+        <v>78605</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3568,31 +3568,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>620</v>
+        <v>6462</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3600,10 +3599,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>558155.0815836267</v>
+        <v>558215.9329796816</v>
       </c>
       <c r="R27" t="n">
-        <v>7068017.481975557</v>
+        <v>7067869.292590594</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3673,10 +3672,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111671188</v>
+        <v>111671197</v>
       </c>
       <c r="B28" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3685,25 +3684,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3716,10 +3715,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>558215.9329796816</v>
+        <v>558250.1783714101</v>
       </c>
       <c r="R28" t="n">
-        <v>7067869.292590594</v>
+        <v>7067936.828089682</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3905,10 +3904,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111671190</v>
+        <v>111670477</v>
       </c>
       <c r="B30" t="n">
-        <v>78611</v>
+        <v>96346</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3917,30 +3916,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6463</v>
+        <v>620</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -3948,10 +3948,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>558215.9329796816</v>
+        <v>558155.0815836267</v>
       </c>
       <c r="R30" t="n">
-        <v>7067869.292590594</v>
+        <v>7068017.481975557</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>

--- a/artfynd/A 36365-2022.xlsx
+++ b/artfynd/A 36365-2022.xlsx
@@ -2624,7 +2624,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111671294</v>
+        <v>111671179</v>
       </c>
       <c r="B19" t="n">
         <v>78578</v>
@@ -2667,10 +2667,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>558118.4535210516</v>
+        <v>558215.9656782644</v>
       </c>
       <c r="R19" t="n">
-        <v>7067742.103054954</v>
+        <v>7067867.520903144</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111671190</v>
+        <v>111670510</v>
       </c>
       <c r="B20" t="n">
-        <v>78611</v>
+        <v>96346</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2752,30 +2752,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6463</v>
+        <v>620</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2783,10 +2784,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>558215.9329796816</v>
+        <v>558124.4538526792</v>
       </c>
       <c r="R20" t="n">
-        <v>7067869.292590594</v>
+        <v>7067994.321708324</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2856,10 +2857,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111671179</v>
+        <v>111670567</v>
       </c>
       <c r="B21" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2872,26 +2873,27 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2899,10 +2901,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>558215.9656782644</v>
+        <v>558129.9933989302</v>
       </c>
       <c r="R21" t="n">
-        <v>7067867.520903144</v>
+        <v>7067958.536170656</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2972,10 +2974,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111670510</v>
+        <v>111671188</v>
       </c>
       <c r="B22" t="n">
-        <v>96346</v>
+        <v>78605</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2984,31 +2986,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>620</v>
+        <v>6462</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3016,10 +3017,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>558124.4538526792</v>
+        <v>558215.9329796816</v>
       </c>
       <c r="R22" t="n">
-        <v>7067994.321708324</v>
+        <v>7067869.292590594</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3089,10 +3090,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111670497</v>
+        <v>111671190</v>
       </c>
       <c r="B23" t="n">
-        <v>96346</v>
+        <v>78611</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3101,31 +3102,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>620</v>
+        <v>6463</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>558159.8619213518</v>
+        <v>558215.9329796816</v>
       </c>
       <c r="R23" t="n">
-        <v>7068022.886732788</v>
+        <v>7067869.292590594</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111670567</v>
+        <v>111670477</v>
       </c>
       <c r="B24" t="n">
         <v>96346</v>
@@ -3250,10 +3250,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>558129.9933989302</v>
+        <v>558155.0815836267</v>
       </c>
       <c r="R24" t="n">
-        <v>7067958.536170656</v>
+        <v>7068017.481975557</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111670558</v>
+        <v>111671197</v>
       </c>
       <c r="B26" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3455,27 +3455,26 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3483,10 +3482,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>558133.6011735104</v>
+        <v>558250.1783714101</v>
       </c>
       <c r="R26" t="n">
-        <v>7067979.426396712</v>
+        <v>7067936.828089682</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3556,10 +3555,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111671188</v>
+        <v>111670558</v>
       </c>
       <c r="B27" t="n">
-        <v>78605</v>
+        <v>96346</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3568,30 +3567,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6462</v>
+        <v>620</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>558215.9329796816</v>
+        <v>558133.6011735104</v>
       </c>
       <c r="R27" t="n">
-        <v>7067869.292590594</v>
+        <v>7067979.426396712</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3672,10 +3672,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111671197</v>
+        <v>111671201</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3688,21 +3688,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3788,10 +3788,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111671201</v>
+        <v>111671294</v>
       </c>
       <c r="B29" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3804,21 +3804,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3831,10 +3831,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>558250.1783714101</v>
+        <v>558118.4535210516</v>
       </c>
       <c r="R29" t="n">
-        <v>7067936.828089682</v>
+        <v>7067742.103054954</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111670477</v>
+        <v>111670497</v>
       </c>
       <c r="B30" t="n">
         <v>96346</v>
@@ -3948,10 +3948,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>558155.0815836267</v>
+        <v>558159.8619213518</v>
       </c>
       <c r="R30" t="n">
-        <v>7068017.481975557</v>
+        <v>7068022.886732788</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>

--- a/artfynd/A 36365-2022.xlsx
+++ b/artfynd/A 36365-2022.xlsx
@@ -2624,10 +2624,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111671179</v>
+        <v>111670510</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2640,26 +2640,27 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2667,10 +2668,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>558215.9656782644</v>
+        <v>558124.4538526792</v>
       </c>
       <c r="R19" t="n">
-        <v>7067867.520903144</v>
+        <v>7067994.321708324</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2740,10 +2741,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111670510</v>
+        <v>111671179</v>
       </c>
       <c r="B20" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2756,27 +2757,26 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>558124.4538526792</v>
+        <v>558215.9656782644</v>
       </c>
       <c r="R20" t="n">
-        <v>7067994.321708324</v>
+        <v>7067867.520903144</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111670567</v>
+        <v>111671226</v>
       </c>
       <c r="B21" t="n">
-        <v>96346</v>
+        <v>78579</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2873,27 +2873,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>620</v>
+        <v>2081</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2901,10 +2900,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>558129.9933989302</v>
+        <v>558118.4535210516</v>
       </c>
       <c r="R21" t="n">
-        <v>7067958.536170656</v>
+        <v>7067742.103054954</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2974,10 +2973,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111671188</v>
+        <v>111670477</v>
       </c>
       <c r="B22" t="n">
-        <v>78605</v>
+        <v>96346</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2986,30 +2985,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6462</v>
+        <v>620</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>558215.9329796816</v>
+        <v>558155.0815836267</v>
       </c>
       <c r="R22" t="n">
-        <v>7067869.292590594</v>
+        <v>7068017.481975557</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111670477</v>
+        <v>111670558</v>
       </c>
       <c r="B24" t="n">
         <v>96346</v>
@@ -3250,10 +3250,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>558155.0815836267</v>
+        <v>558133.6011735104</v>
       </c>
       <c r="R24" t="n">
-        <v>7068017.481975557</v>
+        <v>7067979.426396712</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3323,10 +3323,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111671226</v>
+        <v>111671197</v>
       </c>
       <c r="B25" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3339,21 +3339,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3366,10 +3366,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>558118.4535210516</v>
+        <v>558250.1783714101</v>
       </c>
       <c r="R25" t="n">
-        <v>7067742.103054954</v>
+        <v>7067936.828089682</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111671197</v>
+        <v>111670567</v>
       </c>
       <c r="B26" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3455,26 +3455,27 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3482,10 +3483,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>558250.1783714101</v>
+        <v>558129.9933989302</v>
       </c>
       <c r="R26" t="n">
-        <v>7067936.828089682</v>
+        <v>7067958.536170656</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3555,10 +3556,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111670558</v>
+        <v>111671201</v>
       </c>
       <c r="B27" t="n">
-        <v>96346</v>
+        <v>78579</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3571,27 +3572,26 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>620</v>
+        <v>2081</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>558133.6011735104</v>
+        <v>558250.1783714101</v>
       </c>
       <c r="R27" t="n">
-        <v>7067979.426396712</v>
+        <v>7067936.828089682</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3672,10 +3672,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111671201</v>
+        <v>111671294</v>
       </c>
       <c r="B28" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3688,21 +3688,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3715,10 +3715,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>558250.1783714101</v>
+        <v>558118.4535210516</v>
       </c>
       <c r="R28" t="n">
-        <v>7067936.828089682</v>
+        <v>7067742.103054954</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3788,10 +3788,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111671294</v>
+        <v>111670497</v>
       </c>
       <c r="B29" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3804,26 +3804,27 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3831,10 +3832,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>558118.4535210516</v>
+        <v>558159.8619213518</v>
       </c>
       <c r="R29" t="n">
-        <v>7067742.103054954</v>
+        <v>7068022.886732788</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3904,10 +3905,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111670497</v>
+        <v>111671188</v>
       </c>
       <c r="B30" t="n">
-        <v>96346</v>
+        <v>78605</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3916,31 +3917,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>620</v>
+        <v>6462</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -3948,10 +3948,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>558159.8619213518</v>
+        <v>558215.9329796816</v>
       </c>
       <c r="R30" t="n">
-        <v>7068022.886732788</v>
+        <v>7067869.292590594</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>

--- a/artfynd/A 36365-2022.xlsx
+++ b/artfynd/A 36365-2022.xlsx
@@ -2624,7 +2624,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111670510</v>
+        <v>111670497</v>
       </c>
       <c r="B19" t="n">
         <v>96346</v>
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>558124.4538526792</v>
+        <v>558159.8619213518</v>
       </c>
       <c r="R19" t="n">
-        <v>7067994.321708324</v>
+        <v>7068022.886732788</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111671179</v>
+        <v>111671294</v>
       </c>
       <c r="B20" t="n">
         <v>78578</v>
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>558215.9656782644</v>
+        <v>558118.4535210516</v>
       </c>
       <c r="R20" t="n">
-        <v>7067867.520903144</v>
+        <v>7067742.103054954</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111671226</v>
+        <v>111670477</v>
       </c>
       <c r="B21" t="n">
-        <v>78579</v>
+        <v>96346</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2873,26 +2873,27 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2081</v>
+        <v>620</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2900,10 +2901,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>558118.4535210516</v>
+        <v>558155.0815836267</v>
       </c>
       <c r="R21" t="n">
-        <v>7067742.103054954</v>
+        <v>7068017.481975557</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2973,7 +2974,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111670477</v>
+        <v>111670567</v>
       </c>
       <c r="B22" t="n">
         <v>96346</v>
@@ -3017,10 +3018,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>558155.0815836267</v>
+        <v>558129.9933989302</v>
       </c>
       <c r="R22" t="n">
-        <v>7068017.481975557</v>
+        <v>7067958.536170656</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3090,10 +3091,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111671190</v>
+        <v>111671188</v>
       </c>
       <c r="B23" t="n">
-        <v>78611</v>
+        <v>78605</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3106,21 +3107,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6463</v>
+        <v>6462</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3206,10 +3207,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111670558</v>
+        <v>111671201</v>
       </c>
       <c r="B24" t="n">
-        <v>96346</v>
+        <v>78579</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3222,27 +3223,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>620</v>
+        <v>2081</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3250,10 +3250,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>558133.6011735104</v>
+        <v>558250.1783714101</v>
       </c>
       <c r="R24" t="n">
-        <v>7067979.426396712</v>
+        <v>7067936.828089682</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111670567</v>
+        <v>111671190</v>
       </c>
       <c r="B26" t="n">
-        <v>96346</v>
+        <v>78611</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3451,31 +3451,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>620</v>
+        <v>6463</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3483,10 +3482,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>558129.9933989302</v>
+        <v>558215.9329796816</v>
       </c>
       <c r="R26" t="n">
-        <v>7067958.536170656</v>
+        <v>7067869.292590594</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3556,7 +3555,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111671201</v>
+        <v>111671226</v>
       </c>
       <c r="B27" t="n">
         <v>78579</v>
@@ -3599,10 +3598,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>558250.1783714101</v>
+        <v>558118.4535210516</v>
       </c>
       <c r="R27" t="n">
-        <v>7067936.828089682</v>
+        <v>7067742.103054954</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3672,10 +3671,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111671294</v>
+        <v>111670510</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3688,26 +3687,27 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3715,10 +3715,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>558118.4535210516</v>
+        <v>558124.4538526792</v>
       </c>
       <c r="R28" t="n">
-        <v>7067742.103054954</v>
+        <v>7067994.321708324</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3788,10 +3788,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111670497</v>
+        <v>111671179</v>
       </c>
       <c r="B29" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3804,27 +3804,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3832,10 +3831,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>558159.8619213518</v>
+        <v>558215.9656782644</v>
       </c>
       <c r="R29" t="n">
-        <v>7068022.886732788</v>
+        <v>7067867.520903144</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3905,10 +3904,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111671188</v>
+        <v>111670558</v>
       </c>
       <c r="B30" t="n">
-        <v>78605</v>
+        <v>96346</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3917,30 +3916,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6462</v>
+        <v>620</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -3948,10 +3948,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>558215.9329796816</v>
+        <v>558133.6011735104</v>
       </c>
       <c r="R30" t="n">
-        <v>7067869.292590594</v>
+        <v>7067979.426396712</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>

--- a/artfynd/A 36365-2022.xlsx
+++ b/artfynd/A 36365-2022.xlsx
@@ -2624,10 +2624,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111670497</v>
+        <v>111671188</v>
       </c>
       <c r="B19" t="n">
-        <v>96346</v>
+        <v>78605</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2636,31 +2636,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>620</v>
+        <v>6462</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2668,10 +2667,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>558159.8619213518</v>
+        <v>558216</v>
       </c>
       <c r="R19" t="n">
-        <v>7068022.886732788</v>
+        <v>7067869</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2701,19 +2700,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2741,10 +2730,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111671294</v>
+        <v>111670558</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2757,26 +2746,27 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2784,10 +2774,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>558118.4535210516</v>
+        <v>558134</v>
       </c>
       <c r="R20" t="n">
-        <v>7067742.103054954</v>
+        <v>7067979</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2817,19 +2807,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2857,7 +2837,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111670477</v>
+        <v>111670510</v>
       </c>
       <c r="B21" t="n">
         <v>96346</v>
@@ -2901,10 +2881,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>558155.0815836267</v>
+        <v>558124</v>
       </c>
       <c r="R21" t="n">
-        <v>7068017.481975557</v>
+        <v>7067994</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2934,19 +2914,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2974,10 +2944,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111670567</v>
+        <v>111671179</v>
       </c>
       <c r="B22" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2990,27 +2960,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3018,10 +2987,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>558129.9933989302</v>
+        <v>558216</v>
       </c>
       <c r="R22" t="n">
-        <v>7067958.536170656</v>
+        <v>7067868</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3051,19 +3020,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3091,10 +3050,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111671188</v>
+        <v>111670477</v>
       </c>
       <c r="B23" t="n">
-        <v>78605</v>
+        <v>96346</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3103,30 +3062,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6462</v>
+        <v>620</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3134,10 +3094,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>558215.9329796816</v>
+        <v>558155</v>
       </c>
       <c r="R23" t="n">
-        <v>7067869.292590594</v>
+        <v>7068017</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3167,19 +3127,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3207,7 +3157,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111671201</v>
+        <v>111671226</v>
       </c>
       <c r="B24" t="n">
         <v>78579</v>
@@ -3250,10 +3200,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>558250.1783714101</v>
+        <v>558118</v>
       </c>
       <c r="R24" t="n">
-        <v>7067936.828089682</v>
+        <v>7067742</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3283,19 +3233,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3323,7 +3263,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111671197</v>
+        <v>111671294</v>
       </c>
       <c r="B25" t="n">
         <v>78578</v>
@@ -3366,10 +3306,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>558250.1783714101</v>
+        <v>558118</v>
       </c>
       <c r="R25" t="n">
-        <v>7067936.828089682</v>
+        <v>7067742</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3399,19 +3339,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3482,10 +3412,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>558215.9329796816</v>
+        <v>558216</v>
       </c>
       <c r="R26" t="n">
-        <v>7067869.292590594</v>
+        <v>7067869</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3515,19 +3445,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3555,10 +3475,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111671226</v>
+        <v>111670497</v>
       </c>
       <c r="B27" t="n">
-        <v>78579</v>
+        <v>96346</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3571,26 +3491,27 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2081</v>
+        <v>620</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3598,10 +3519,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>558118.4535210516</v>
+        <v>558160</v>
       </c>
       <c r="R27" t="n">
-        <v>7067742.103054954</v>
+        <v>7068023</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3631,19 +3552,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3671,10 +3582,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111670510</v>
+        <v>111671197</v>
       </c>
       <c r="B28" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3687,27 +3598,26 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3715,10 +3625,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>558124.4538526792</v>
+        <v>558250</v>
       </c>
       <c r="R28" t="n">
-        <v>7067994.321708324</v>
+        <v>7067937</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3748,19 +3658,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3788,10 +3688,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111671179</v>
+        <v>111671201</v>
       </c>
       <c r="B29" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3804,21 +3704,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3831,10 +3731,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>558215.9656782644</v>
+        <v>558250</v>
       </c>
       <c r="R29" t="n">
-        <v>7067867.520903144</v>
+        <v>7067937</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3864,19 +3764,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3904,7 +3794,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111670558</v>
+        <v>111670567</v>
       </c>
       <c r="B30" t="n">
         <v>96346</v>
@@ -3948,10 +3838,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>558133.6011735104</v>
+        <v>558130</v>
       </c>
       <c r="R30" t="n">
-        <v>7067979.426396712</v>
+        <v>7067959</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3981,19 +3871,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
